--- a/Mifos Automation Excels/Client/4055-CREATEACTIVECLIENT-PERSON-ADD-CLIENTCHARGE-SPECIFIED-DUEDATE-BeforeACTIVATION-DATE.xlsx
+++ b/Mifos Automation Excels/Client/4055-CREATEACTIVECLIENT-PERSON-ADD-CLIENTCHARGE-SPECIFIED-DUEDATE-BeforeACTIVATION-DATE.xlsx
@@ -117,10 +117,10 @@
     <t>New Client 1</t>
   </si>
   <si>
-    <t>Charge cannot be applied before client activation date</t>
-  </si>
-  <si>
     <t>verify1</t>
+  </si>
+  <si>
+    <t>client activation date cannot be after the charge due date</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -208,6 +208,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +733,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -783,10 +784,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
